--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
@@ -14,11 +14,11 @@
   <definedNames>
     <definedName name="BudgetCategory">BudgetCategoryLookup[Budget Category Lookup]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Budget Report'!$A$1:$H$70</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Budget Report'!$B:$B,'Budget Report'!$42:$43</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Budget Report'!$B:$B,'Budget Report'!$42:$42</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,44 +29,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Difference</t>
   </si>
   <si>
-    <t>Housing</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
     <t>Insurance</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Gifts and Charity</t>
-  </si>
-  <si>
     <t>Pets</t>
   </si>
   <si>
     <t>Personal Care</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Loans</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -76,21 +55,12 @@
     <t>Total income</t>
   </si>
   <si>
-    <t>Savings or Investments</t>
-  </si>
-  <si>
     <t>Projected Monthly Income</t>
   </si>
   <si>
     <t>Budget Category Lookup</t>
   </si>
   <si>
-    <t>% of Expenses</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
     <t>Projected Monthly Expenses</t>
   </si>
   <si>
@@ -112,15 +82,9 @@
     <t>Balance (income - expenses)</t>
   </si>
   <si>
-    <t>Budget Categories</t>
-  </si>
-  <si>
     <t>Expense Overview</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>Lazer</t>
   </si>
   <si>
@@ -296,6 +260,9 @@
   </si>
   <si>
     <t>Data (Dia)</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -303,14 +270,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -427,104 +401,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -535,14 +531,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="Currency" xfId="18" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -572,6 +570,7 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -601,14 +600,16 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -621,7 +622,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -842,91 +842,20 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Budget Report'!$B$44:$B$55</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Food</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Transportation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Housing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Insurance</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Gifts and Charity</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Personal Care</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Loans</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Pets</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Children</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Taxes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Savings or Investments</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Budget Report'!$D$44:$D$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.259291270527226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.183664649956785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.181503889369058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17286084701815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.151253241140882</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0302506482281763</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0211754537597234</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1015,109 +944,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Judah Holanda Correia Lima" refreshedDate="42179.742374768517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Judah Holanda Correia Lima" refreshedDate="42696.465920254632" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource name="BudgetDetails"/>
   </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems count="67">
-        <s v="Empréstimo do Banco do Brasil"/>
-        <s v="Medical"/>
-        <s v="School Supplies"/>
-        <s v="Movies"/>
-        <s v="Music (CDs, downloads, etc.)"/>
-        <s v="Sporting Events"/>
-        <s v="Dining Out"/>
-        <s v="Groceries"/>
-        <s v="Charity 1"/>
-        <s v="Charity 2"/>
-        <s v="Cable/Satellite"/>
-        <s v="Electric"/>
-        <s v="Mortgage or Rent"/>
-        <s v="Health"/>
-        <s v="Home"/>
-        <s v="Credit Card 1"/>
-        <s v="Credit Card 2"/>
-        <s v="Clothing"/>
-        <s v="Dry Cleaning"/>
-        <s v="Health Club"/>
-        <s v="Food"/>
-        <s v="Grooming"/>
-        <s v="Investment account"/>
-        <s v="Retirement account"/>
-        <s v="Federal"/>
-        <s v="State"/>
-        <s v="Bus/Taxi fare"/>
-        <s v="Fuel"/>
-        <s v="Insurance"/>
-        <s v="Vehicle payment" u="1"/>
-        <s v="Parking fees" u="1"/>
-        <s v="Personal" u="1"/>
-        <s v="Online/Internet Service" u="1"/>
-        <s v="Waste Removal" u="1"/>
-        <s v="Phone (Home)" u="1"/>
-        <s v="Licencing " u="1"/>
-        <s v="Video/DVD (Purchase)" u="1"/>
-        <s v="Natural gas/oil" u="1"/>
-        <s v="Live Theater" u="1"/>
-        <s v="Water and Sewer" u="1"/>
-        <s v="House Cleaning Service" u="1"/>
-        <s v="Gift 2" u="1"/>
-        <s v="School Tuition" u="1"/>
-        <s v="Cable" u="1"/>
-        <s v="Licensing " u="1"/>
-        <s v="Toys" u="1"/>
-        <s v="Extracurricular activities" u="1"/>
-        <s v="Phone" u="1"/>
-        <s v="Credit Card 3" u="1"/>
-        <s v="Local" u="1"/>
-        <s v="Gas" u="1"/>
-        <s v="Concerts" u="1"/>
-        <s v="Phone (Cellular)" u="1"/>
-        <s v="Gift 1" u="1"/>
-        <s v="Video/DVD (Rental)" u="1"/>
-        <s v="Student" u="1"/>
-        <s v="CD" u="1"/>
-        <s v="Other" u="1"/>
-        <s v="Charity 3" u="1"/>
-        <s v="Second Mortgage" u="1"/>
-        <s v="Hair/Nails" u="1"/>
-        <s v="Waste Removal and Recycle" u="1"/>
-        <s v="Maintenance" u="1"/>
-        <s v="Supplies" u="1"/>
-        <s v="Vehicle payment 2" u="1"/>
-        <s v="Life" u="1"/>
-        <s v="Vehicle payment 1" u="1"/>
-      </sharedItems>
+  <cacheFields count="7">
+    <cacheField name="Descrição" numFmtId="0">
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="12">
-        <s v="Children"/>
-        <s v="Entertainment"/>
-        <s v="Food"/>
-        <s v="Gifts and Charity"/>
-        <s v="Housing"/>
-        <s v="Insurance"/>
-        <s v="Loans"/>
-        <s v="Personal Care"/>
-        <s v="Pets"/>
-        <s v="Savings or Investments"/>
-        <s v="Taxes"/>
-        <s v="Transportation"/>
-      </sharedItems>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Projected Cost" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1000"/>
+    <cacheField name="Custo Estimado" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="7858.21"/>
     </cacheField>
-    <cacheField name="Actual Cost" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1200"/>
+    <cacheField name="Custo Real" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="7450"/>
     </cacheField>
-    <cacheField name="Difference" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-200" maxValue="470"/>
+    <cacheField name="Diferença" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="728.82999999999993"/>
     </cacheField>
-    <cacheField name="Actual Cost Ranking" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1200"/>
+    <cacheField name="Ranking do Custo Atual" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="7450"/>
+    </cacheField>
+    <cacheField name="Data (Dia)" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="30"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1131,483 +982,290 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="Insurance"/>
+    <s v="Transportation"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Tarifa Banco do Brasil"/>
+    <s v="Tarifa"/>
+    <n v="8.5"/>
+    <n v="8.5"/>
+    <n v="0"/>
+    <n v="8.5"/>
+    <n v="6"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Tim Lucas"/>
+    <s v="Personal Care"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="25"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="50"/>
-    <n v="28"/>
-    <n v="22"/>
-    <n v="28"/>
+    <s v="Tim Gal"/>
+    <s v="Personal Care"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="25"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="500"/>
-    <n v="30"/>
-    <n v="470"/>
+    <s v="Tim Judah"/>
+    <s v="Personal Care"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <s v="GVT"/>
+    <s v="Custo Doméstico"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="0"/>
+    <n v="130"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Tarifa Santander"/>
+    <s v="Tarifa"/>
+    <n v="140"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="140"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Engomadeira"/>
+    <s v="Custo Doméstico"/>
+    <n v="140"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="140"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <s v="Tim Kleber"/>
+    <s v="Telefone"/>
+    <n v="150"/>
+    <n v="150"/>
+    <n v="0"/>
+    <n v="150"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Seguro Santander"/>
+    <s v="Seguro"/>
+    <n v="197.8"/>
+    <n v="197.8"/>
+    <n v="0"/>
+    <n v="197.8"/>
     <n v="30"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="40"/>
-    <n v="-40"/>
-    <n v="40"/>
+    <s v="CREA"/>
+    <s v="Sindicato"/>
+    <n v="217"/>
+    <n v="217"/>
+    <n v="0"/>
+    <n v="217"/>
+    <n v="25"/>
   </r>
   <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="1000"/>
-    <n v="1200"/>
-    <n v="-200"/>
-    <n v="1200"/>
+    <s v="IPTU"/>
+    <s v="Imposto"/>
+    <n v="231.6"/>
+    <n v="231.6"/>
+    <n v="0"/>
+    <n v="231.6"/>
+    <n v="6"/>
   </r>
   <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
+    <s v="Unifor Judah"/>
+    <s v="Educação"/>
+    <n v="250"/>
+    <n v="250"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="25"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="3"/>
-    <n v="200"/>
-    <n v="200"/>
-    <n v="0"/>
-    <n v="200"/>
+    <s v="Energia"/>
+    <s v="Custo Doméstico"/>
+    <n v="303.94"/>
+    <n v="303.94"/>
+    <n v="0"/>
+    <n v="303.94"/>
+    <n v="15"/>
   </r>
   <r>
-    <x v="9"/>
-    <x v="3"/>
-    <n v="500"/>
-    <n v="500"/>
-    <n v="0"/>
-    <n v="500"/>
+    <s v="Faxineira"/>
+    <s v="Custo Doméstico"/>
+    <n v="320"/>
+    <n v="320"/>
+    <n v="0"/>
+    <n v="320"/>
+    <n v="13"/>
   </r>
   <r>
-    <x v="10"/>
-    <x v="4"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="100"/>
+    <s v="Seguro de Vida Kebler"/>
+    <s v="Seguro"/>
+    <n v="479.16"/>
+    <n v="479.16"/>
+    <n v="0"/>
+    <n v="479.16"/>
+    <n v="22"/>
   </r>
   <r>
-    <x v="11"/>
-    <x v="4"/>
-    <n v="45"/>
-    <n v="40"/>
-    <n v="5"/>
-    <n v="40"/>
+    <s v="Combustível"/>
+    <s v="Transporte"/>
+    <n v="600"/>
+    <n v="600"/>
+    <n v="0"/>
+    <n v="600"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="12"/>
-    <x v="4"/>
+    <s v="Contador/Impostos"/>
+    <s v="Imposto"/>
+    <n v="600"/>
+    <n v="600"/>
+    <n v="0"/>
+    <n v="600"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="Condomínio"/>
+    <s v="Custo Doméstico"/>
     <n v="700"/>
     <n v="700"/>
     <n v="0"/>
     <n v="700"/>
+    <n v="10"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="5"/>
-    <n v="400"/>
-    <n v="400"/>
-    <n v="0"/>
-    <n v="400"/>
+    <s v="Empréstimo do Banco do Brasil"/>
+    <s v="Empréstimo"/>
+    <n v="800"/>
+    <n v="800"/>
+    <n v="0"/>
+    <n v="800"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="5"/>
-    <n v="400"/>
-    <n v="400"/>
-    <n v="0"/>
-    <n v="400"/>
+    <s v="MasterCard"/>
+    <s v="Cartão de Crédito"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="0"/>
+    <n v="1000"/>
+    <n v="25"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="6"/>
+    <s v="Unimed"/>
+    <s v="Seguro"/>
+    <n v="1287"/>
+    <n v="1287"/>
+    <n v="0"/>
+    <n v="1287"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Oferta"/>
+    <s v="Oferta"/>
+    <n v="1480"/>
+    <n v="1480"/>
+    <n v="0"/>
+    <n v="1480"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Unifor Lucas"/>
+    <s v="Educação"/>
+    <n v="2787"/>
+    <n v="2787"/>
+    <n v="0"/>
+    <n v="2787"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <s v="Financiamento Landscape 901"/>
+    <s v="Empréstimo"/>
+    <n v="3847.95"/>
+    <n v="3847.95"/>
+    <n v="0"/>
+    <n v="3847.95"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="VISA"/>
+    <s v="Cartão de Crédito"/>
+    <n v="4000"/>
+    <n v="4000"/>
+    <n v="0"/>
+    <n v="4000"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Itaú"/>
+    <s v="Cartão de Crédito"/>
+    <n v="5135"/>
+    <n v="5135"/>
+    <n v="0"/>
+    <n v="5135"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <s v="Empréstimo Santander"/>
+    <s v="Empréstimo"/>
+    <n v="7450"/>
+    <n v="7450"/>
+    <n v="0"/>
+    <n v="7450"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Financiamento Landscape 700 (Eliezer)"/>
+    <s v="Empréstimo"/>
+    <n v="7858.21"/>
+    <n v="7129.38"/>
+    <n v="728.82999999999993"/>
+    <n v="7129.38"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="State"/>
+    <s v="Taxes"/>
     <m/>
     <m/>
     <n v="0"/>
     <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="7"/>
-    <n v="150"/>
-    <n v="140"/>
-    <n v="10"/>
-    <n v="140"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="7"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="10"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="10"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="11"/>
-    <n v="100"/>
-    <n v="150"/>
-    <n v="-50"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="11"/>
-    <n v="450"/>
-    <n v="400"/>
-    <n v="50"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="11"/>
-    <n v="300"/>
-    <n v="300"/>
-    <n v="0"/>
-    <n v="300"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BudgetReport" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" fieldPrintTitles="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Budget Categories">
-  <location ref="B42:D56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="68">
-        <item m="1" x="29"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="44"/>
-        <item x="12"/>
-        <item m="1" x="62"/>
-        <item x="26"/>
-        <item m="1" x="43"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item m="1" x="58"/>
-        <item x="17"/>
-        <item m="1" x="51"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item m="1" x="48"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item m="1" x="42"/>
-        <item x="2"/>
-        <item m="1" x="46"/>
-        <item x="24"/>
-        <item x="20"/>
-        <item m="1" x="50"/>
-        <item m="1" x="53"/>
-        <item m="1" x="41"/>
-        <item x="21"/>
-        <item m="1" x="60"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="22"/>
-        <item m="1" x="35"/>
-        <item m="1" x="65"/>
-        <item m="1" x="38"/>
-        <item m="1" x="49"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="37"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="47"/>
-        <item m="1" x="52"/>
-        <item m="1" x="34"/>
-        <item x="23"/>
-        <item m="1" x="59"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item m="1" x="55"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="66"/>
-        <item m="1" x="64"/>
-        <item m="1" x="36"/>
-        <item m="1" x="54"/>
-        <item m="1" x="33"/>
-        <item m="1" x="61"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
-        <item sd="0" x="4"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BudgetReport" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" fieldPrintTitles="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Budget Categories">
+  <location ref="B42:G55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="165" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
-    <dataField name="% of Expenses" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="1" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -1677,16 +1335,16 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" name="Descrição" dataDxfId="6"/>
-    <tableColumn id="1" name="Categoria" dataDxfId="4"/>
-    <tableColumn id="3" name="Custo Estimado" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="Custo Real" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Diferença" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="1" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="3" name="Custo Estimado" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="Custo Real" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Diferença" dataDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Ranking do Custo Atual" dataDxfId="1">
       <calculatedColumnFormula>BudgetDetails[[#This Row],[Custo Real]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Data (Dia)" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Data (Dia)" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,10 +1688,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2048,98 +1706,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" thickTop="1">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="20">
+        <v>28</v>
+      </c>
+      <c r="C3" s="16">
         <v>12400</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <f>SUM(BudgetDetails[Custo Estimado])</f>
         <v>40228.160000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="20">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16">
         <v>2390</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="20">
+        <v>64</v>
+      </c>
+      <c r="C5" s="16">
         <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="20">
+        <v>65</v>
+      </c>
+      <c r="C6" s="16">
         <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="20">
+        <v>66</v>
+      </c>
+      <c r="C7" s="16">
         <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="20">
+        <v>61</v>
+      </c>
+      <c r="C8" s="16">
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="20">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16">
         <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="17">
         <v>2787</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
         <f>SUM(C3:C10)</f>
         <v>28027</v>
       </c>
@@ -2147,118 +1805,124 @@
     <row r="13" spans="1:5" ht="15" customHeight="1"/>
     <row r="14" spans="1:5" ht="15" customHeight="1"/>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>23</v>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="20">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16">
         <v>12400</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <f>SUM(BudgetDetails[Custo Real])</f>
         <v>39499.33</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="20">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16">
         <v>2390</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="20">
+        <v>64</v>
+      </c>
+      <c r="C18" s="16">
         <v>650</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="17" customHeight="1">
       <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="20">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16">
         <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16" customHeight="1">
       <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="20">
+        <v>66</v>
+      </c>
+      <c r="C20" s="16">
         <v>650</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="20">
+        <v>61</v>
+      </c>
+      <c r="C21" s="16">
         <v>4000</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="20">
+        <v>62</v>
+      </c>
+      <c r="C22" s="16">
         <v>4500</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="17">
         <v>2787</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="B24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="18">
         <f>SUM(C16:C23)</f>
         <v>28027</v>
       </c>
+      <c r="E24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="20">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16">
         <f>C11-SUM(BudgetDetails[Custo Estimado])</f>
         <v>-12201.160000000003</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="20">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16">
         <f>C24-SUM(BudgetDetails[Custo Real])</f>
         <v>-11472.330000000002</v>
       </c>
@@ -2267,177 +1931,28 @@
       <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <f>C31-C32</f>
         <v>-728.83000000000175</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="16" thickTop="1">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="C42" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0.25929127052722556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="10">
-        <v>850</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0.18366464995678478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10">
-        <v>840</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0.1815038893690579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="10">
-        <v>800</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0.17286084701815038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="10">
-        <v>700</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0.15125324114088159</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="10">
-        <v>140</v>
-      </c>
-      <c r="D49" s="11">
-        <v>3.025064822817632E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="10">
-        <v>98</v>
-      </c>
-      <c r="D50" s="11">
-        <v>2.1175453759723423E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="10">
-        <v>4628</v>
-      </c>
-      <c r="D56" s="11">
-        <v>1</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
@@ -2472,787 +1987,787 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="40.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>88</v>
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="15">
         <v>8.5</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>8.5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>8.5</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15">
         <v>35</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>35</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>35</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
         <v>35</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>35</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
         <v>45</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>45</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>45</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15">
         <v>130</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>130</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>130</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15">
         <v>140</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>140</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>140</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15">
         <v>140</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>140</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>140</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="15">
         <v>150</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>150</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>150</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15">
         <v>197.8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>197.8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>197.8</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15">
         <v>217</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>217</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>217</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15">
         <v>231.6</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>231.6</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>231.6</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15">
         <v>250</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>250</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>250</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15">
         <v>303.94</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>303.94</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>303.94</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
         <v>320</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>320</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>320</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15">
         <v>479.16</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>479.16</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>479.16</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
         <v>600</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>600</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>600</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="A19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15">
         <v>600</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>600</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>600</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15">
         <v>700</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>700</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>700</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="15">
         <v>800</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>800</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>800</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="15">
         <v>1000</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>1000</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>1000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="A23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="15">
         <v>1287</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>1287</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>1287</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="15">
         <v>1480</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <v>1480</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>1480</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15">
         <v>2787</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="15">
         <v>2787</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>2787</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="15">
         <v>3847.95</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <v>3847.95</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>3847.95</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="A27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="15">
         <v>4000</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="15">
         <v>4000</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>4000</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="15">
         <v>5135</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="15">
         <v>5135</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>5135</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="19">
+      <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="15">
         <v>7450</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="15">
         <v>7450</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>7450</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="15">
         <v>7858.21</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="15">
         <v>7129.38</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>728.82999999999993</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>7129.38</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19">
+      <c r="A31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
         <f>BudgetDetails[[#This Row],[Custo Estimado]]-BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f>BudgetDetails[[#This Row],[Custo Real]]</f>
         <v>0</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F2:F31">
     <cfRule type="dataBar" priority="54">
       <dataBar showValue="0">
@@ -3338,96 +2853,96 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
+      <c r="A14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
+      <c r="A15" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
+      <c r="A16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
+      <c r="A17" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
